--- a/用例数据/沪银行/买卖交易/卖方银行间一级交收失败/测试结果.xlsx
+++ b/用例数据/沪银行/买卖交易/卖方银行间一级交收失败/测试结果.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="stklist" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="259">
   <si>
     <t>EXCHID</t>
   </si>
@@ -728,15 +728,9 @@
     <t>OTHERFEE4</t>
   </si>
   <si>
-    <t>30002174</t>
-  </si>
-  <si>
     <t>005_005_093</t>
   </si>
   <si>
-    <t>20221214223318</t>
-  </si>
-  <si>
     <t>CCB1</t>
   </si>
   <si>
@@ -749,9 +743,6 @@
     <t>-150.000</t>
   </si>
   <si>
-    <t>968917926.880</t>
-  </si>
-  <si>
     <t>150.000</t>
   </si>
   <si>
@@ -779,9 +770,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>000007096066</t>
-  </si>
-  <si>
     <t>NONDVP</t>
   </si>
   <si>
@@ -800,19 +788,16 @@
     <t>701</t>
   </si>
   <si>
-    <t>30002175</t>
-  </si>
-  <si>
-    <t>005_006_005</t>
-  </si>
-  <si>
-    <t>沪市银行间现券交易业务失败</t>
-  </si>
-  <si>
-    <t>000007096067</t>
-  </si>
-  <si>
-    <t>702</t>
+    <t>30002594</t>
+  </si>
+  <si>
+    <t>20230130000000</t>
+  </si>
+  <si>
+    <t>817020790.700</t>
+  </si>
+  <si>
+    <t>000007115405</t>
   </si>
 </sst>
 </file>
@@ -1144,9 +1129,9 @@
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -1666,25 +1651,25 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:86" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1700,9 +1685,9 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>106</v>
       </c>
@@ -1941,7 +1926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>107</v>
       </c>
@@ -2180,38 +2165,38 @@
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:79" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="30" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="31" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="32" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="33" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="34" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2220,15 +2205,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:EI23"/>
+  <dimension ref="A1:EI20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>108</v>
       </c>
@@ -2647,27 +2635,27 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>235</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>236</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>237</v>
+        <v>256</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>87</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>88</v>
@@ -2697,13 +2685,13 @@
         <v>100</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>101</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>93</v>
@@ -2712,16 +2700,16 @@
         <v>104</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="Z2" s="1" t="s">
         <v>97</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="AB2" s="1" t="s">
         <v>94</v>
@@ -2739,7 +2727,7 @@
         <v>97</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>97</v>
@@ -2766,7 +2754,7 @@
         <v>97</v>
       </c>
       <c r="AP2" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="AQ2" s="1" t="s">
         <v>100</v>
@@ -2778,13 +2766,13 @@
         <v>90</v>
       </c>
       <c r="AT2" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="AU2" s="1" t="s">
         <v>103</v>
       </c>
       <c r="AV2" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AX2" s="1" t="s">
         <v>96</v>
@@ -2793,7 +2781,7 @@
         <v>97</v>
       </c>
       <c r="AZ2" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="BA2" s="1" t="s">
         <v>93</v>
@@ -2805,13 +2793,13 @@
         <v>86</v>
       </c>
       <c r="BF2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BG2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="BH2" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="BI2" s="1" t="s">
         <v>104</v>
@@ -2826,10 +2814,10 @@
         <v>93</v>
       </c>
       <c r="BN2" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="BP2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BQ2" s="1" t="s">
         <v>93</v>
@@ -2841,10 +2829,10 @@
         <v>97</v>
       </c>
       <c r="BT2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BV2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="BW2" s="1" t="s">
         <v>86</v>
@@ -2856,7 +2844,7 @@
         <v>86</v>
       </c>
       <c r="BZ2" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="CA2" s="1" t="s">
         <v>97</v>
@@ -2874,28 +2862,28 @@
         <v>93</v>
       </c>
       <c r="CH2" s="1" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="CJ2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="CK2" s="1" t="s">
-        <v>107</v>
+        <v>256</v>
       </c>
       <c r="CL2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="CR2" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="CT2" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="CV2" s="1" t="s">
         <v>93</v>
       </c>
       <c r="DA2" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="DC2" s="1" t="s">
         <v>97</v>
@@ -2904,16 +2892,16 @@
         <v>97</v>
       </c>
       <c r="DE2" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="DF2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="DG2" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="DJ2" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="DK2" s="1" t="s">
         <v>97</v>
@@ -2961,7 +2949,7 @@
         <v>97</v>
       </c>
       <c r="EC2" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="ED2" s="1" t="s">
         <v>97</v>
@@ -2973,352 +2961,30 @@
         <v>93</v>
       </c>
       <c r="EH2" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="EI2" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="V3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="W3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AB3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AE3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AG3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AH3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AI3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AK3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AL3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AM3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AP3" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AQ3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AR3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AS3" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AT3" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="AU3" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="AV3" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AX3" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AY3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="AZ3" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="BA3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BB3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BC3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BF3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BG3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BH3" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="BI3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BJ3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BL3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BM3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="BP3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BQ3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="BR3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BS3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="BT3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BV3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="BW3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BX3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BY3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ3" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="CA3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CB3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CD3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CE3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CG3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CH3" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="CJ3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="CK3" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="CL3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="CR3" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="CT3" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="CV3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="DA3" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="DC3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DD3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DE3" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="DF3" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DG3" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="DJ3" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="DK3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DL3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DM3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DN3" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DO3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DP3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DQ3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DR3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DS3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DT3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DU3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DV3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DW3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DX3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="DY3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="EC3" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="ED3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="EE3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="EG3" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="EH3" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="EI3" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:139" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
